--- a/SMT32（一）原理.xlsx
+++ b/SMT32（一）原理.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="芯片介绍" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="输入模式" sheetId="5" r:id="rId4"/>
     <sheet name="输出模式" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -680,6 +680,15 @@
     <t>第七讲：在keil中建工程</t>
   </si>
   <si>
+    <t>视频路径</t>
+  </si>
+  <si>
+    <t>D:\songkewei\STM32\songkewei\光盘资料\普中STM32-PZ6806L--PZ6806D开发板资料\普中STM32-PZ6806L开发板资料-B\3--手把手开发讲解视频</t>
+  </si>
+  <si>
+    <t>D:\AAAAAAAAA程序员\光盘资料\普中STM32-PZ6806L--PZ6806D开发板资料\普中STM32-PZ6806L开发板资料-B\3--手把手开发讲解视频</t>
+  </si>
+  <si>
     <t>第八讲：GPIO介绍</t>
   </si>
   <si>
@@ -840,76 +849,59 @@
     <t>第九讲：使用寄存器点亮一个LED</t>
   </si>
   <si>
-    <t>视频路径</t>
-  </si>
-  <si>
-    <t>D:\songkewei\STM32\songkewei\光盘资料\普中STM32-PZ6806L--PZ6806D开发板资料\普中STM32-PZ6806L开发板资料-B\3--手把手开发讲解视频</t>
-  </si>
-  <si>
-    <t>D:\AAAAAAAAA程序员\光盘资料\普中STM32-PZ6806L--PZ6806D开发板资料\普中STM32-PZ6806L开发板资料-B\3--手把手开发讲解视频</t>
-  </si>
-  <si>
     <t>STM32的启动文件:</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化堆栈指针SP</t>
   </si>
   <si>
     <t>初始化程序计数器指针 PC</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化堆栈指针SP</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>设置堆、栈的大小</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>设置中断向量表的入口地址</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>配置外部 SRAM 作为数据存储器（这个由用户配置，一般的开发板可没有外部SRAM）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>调用 SystemInit() 函数配置 STM32 的系统时钟</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>设置 C 库的分支入口“ __main”（最终用来调用 main 函数）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>这开发板想点亮LED需要让GPIOC输出低电平就行</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>⑴把用到的寄存器都封装成宏定义</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>⑵配置GPIO的工作模式，输出的速度，开启GPIOC的时钟</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>①开启GPIOC时钟，(RCC_APB2ENR)的第四位置1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>②设置GPIOC的工作模式，</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>设置成通用推挽输出，最大输出，(GPIOx_CRL)的最低四位设成0011</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>③让GPIOC输出数据</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>可以配置</t>
     </r>
     <r>
@@ -917,16 +909,21 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>端口输出数据寄存器(GPIOx_ODR)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>也可以配置</t>
     </r>
     <r>
@@ -934,16 +931,21 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>端口位设置/清除寄存器(GPIOx_BSRR)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这里选择(GPIOx_BSRR)这个，因为</t>
     </r>
     <r>
@@ -951,7 +953,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -962,7 +963,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -973,7 +973,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -984,24 +983,27 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>，从而改变输出电平</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>所以把(GPIOx_BSRR)设置为00000000 00000001 00000000 00000000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,9 +1047,159 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1066,30 +1218,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,8 +1238,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1132,12 +1448,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,7 +1739,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1193,7 +1748,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1205,87 +1760,65 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1295,7 +1828,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1317,7 +1850,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1359,7 +1892,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1393,7 +1926,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>49691</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="直接连接符 7"/>
         <xdr:cNvCxnSpPr/>
@@ -1438,7 +1971,7 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>63197</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="直接连接符 8"/>
         <xdr:cNvCxnSpPr/>
@@ -1483,7 +2016,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>66510</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="10" name="直接连接符 9"/>
         <xdr:cNvCxnSpPr/>
@@ -1528,7 +2061,7 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>3562</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="直接连接符 10"/>
         <xdr:cNvCxnSpPr/>
@@ -1573,7 +2106,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>122830</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="12" name="直接连接符 11"/>
         <xdr:cNvCxnSpPr/>
@@ -1618,7 +2151,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>35035</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="13" name="直接连接符 12"/>
         <xdr:cNvCxnSpPr/>
@@ -1663,7 +2196,7 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>160933</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="14" name="直接连接符 13"/>
         <xdr:cNvCxnSpPr/>
@@ -1712,7 +2245,7 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>53281</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="15" name="直接连接符 14"/>
         <xdr:cNvCxnSpPr/>
@@ -1748,11 +2281,53 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276860</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="10095230"/>
+          <a:ext cx="7334250" cy="6238875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1774,7 +2349,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1806,7 +2381,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>55962</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="5" name="直接连接符 4"/>
         <xdr:cNvCxnSpPr/>
@@ -1855,7 +2430,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="TextBox 5"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1901,6 +2476,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>外部</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1919,7 +2495,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>5953</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="TextBox 6"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1965,6 +2541,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>内部</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1983,7 +2560,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
         <xdr:cNvCxnSpPr/>
@@ -2030,7 +2607,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>53578</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="矩形 13"/>
         <xdr:cNvSpPr/>
@@ -2083,7 +2660,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>125015</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="TextBox 15"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2148,7 +2725,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>125016</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="矩形 16"/>
         <xdr:cNvSpPr/>
@@ -2201,7 +2778,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>104175</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
         <xdr:cNvCxnSpPr/>
@@ -2248,7 +2825,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="24" name="肘形连接符 23"/>
         <xdr:cNvCxnSpPr/>
@@ -2297,7 +2874,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>113110</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="肘形连接符 30"/>
         <xdr:cNvCxnSpPr/>
@@ -2344,7 +2921,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="肘形连接符 30"/>
         <xdr:cNvCxnSpPr/>
@@ -2391,7 +2968,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>65316</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="54" name="TextBox 53"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2464,7 +3041,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2496,7 +3073,7 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>168367</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="56" name="直接连接符 55"/>
         <xdr:cNvCxnSpPr/>
@@ -2545,7 +3122,7 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>124312</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="57" name="TextBox 56"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2591,6 +3168,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>外部</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2609,7 +3187,7 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>118359</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="58" name="TextBox 57"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2655,6 +3233,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>内部</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2673,7 +3252,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>148487</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="62" name="矩形 61"/>
         <xdr:cNvSpPr/>
@@ -2726,7 +3305,7 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>72119</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="63" name="矩形 62"/>
         <xdr:cNvSpPr/>
@@ -2779,7 +3358,7 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95930</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="64" name="TextBox 63"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -2844,7 +3423,7 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>103414</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="65" name="直接箭头连接符 64"/>
         <xdr:cNvCxnSpPr/>
@@ -2891,7 +3470,7 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>103331</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="70" name="形状 69"/>
         <xdr:cNvCxnSpPr/>
@@ -2938,7 +3517,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="TextBox 72"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3111,7 +3690,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>94615</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="TextBox 73"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3292,16 +3871,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1268016" y="14114455"/>
-          <a:ext cx="3313509" cy="713589"/>
+          <a:off x="1275080" y="14018895"/>
+          <a:ext cx="3335020" cy="708660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3332,16 +3911,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1268016" y="12900423"/>
-          <a:ext cx="4708612" cy="1165909"/>
+          <a:off x="1275080" y="12813030"/>
+          <a:ext cx="4739640" cy="1158875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3372,16 +3951,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1268016" y="15311439"/>
-          <a:ext cx="4631532" cy="1660404"/>
+          <a:off x="1275080" y="15207615"/>
+          <a:ext cx="4659630" cy="1649730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3412,16 +3991,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip r:embed="rId5" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1268016" y="17073563"/>
-          <a:ext cx="4655343" cy="2804512"/>
+          <a:off x="1275080" y="16957675"/>
+          <a:ext cx="4686300" cy="2785745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3452,16 +4031,16 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip r:embed="rId6" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1500184" y="20675209"/>
-          <a:ext cx="5299513" cy="3332560"/>
+          <a:off x="1509395" y="20706080"/>
+          <a:ext cx="5332730" cy="3309620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3484,15 +4063,15 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>107161</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="TextBox 35"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4744638" y="22871912"/>
-          <a:ext cx="2077640" cy="309562"/>
+          <a:off x="4772660" y="22888575"/>
+          <a:ext cx="2092325" cy="306705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3565,15 +4144,15 @@
       <xdr:row>139</xdr:row>
       <xdr:rowOff>53581</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="TextBox 36"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4744638" y="23681535"/>
-          <a:ext cx="2077640" cy="309562"/>
+          <a:off x="4772660" y="23691850"/>
+          <a:ext cx="2092325" cy="307340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3646,15 +4225,15 @@
       <xdr:row>138</xdr:row>
       <xdr:rowOff>125018</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3827856" y="23889893"/>
-          <a:ext cx="904874" cy="0"/>
+          <a:off x="3851275" y="23898860"/>
+          <a:ext cx="909955" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3693,15 +4272,15 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>47628</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3833809" y="23121941"/>
-          <a:ext cx="910829" cy="0"/>
+          <a:off x="3856990" y="23136225"/>
+          <a:ext cx="915670" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3731,7 +4310,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3753,7 +4332,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3785,7 +4364,7 @@
       <xdr:row>115</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3854,7 +4433,7 @@
       <xdr:row>105</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3923,7 +4502,7 @@
       <xdr:row>96</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="TextBox 7"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -3969,6 +4548,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>用来设计片内外设</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3987,7 +4567,7 @@
       <xdr:row>87</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="TextBox 12"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4056,7 +4636,7 @@
       <xdr:row>79</xdr:row>
       <xdr:rowOff>66262</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="TextBox 13"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4125,7 +4705,7 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="TextBox 14"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4194,7 +4774,7 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="TextBox 16"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4240,6 +4820,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>预留</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4258,7 +4839,7 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="TextBox 17"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4304,6 +4885,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>内核的东西</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4322,7 +4904,7 @@
       <xdr:row>115</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="椭圆 18">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
@@ -4363,6 +4945,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>返回</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4381,7 +4964,7 @@
       <xdr:row>140</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="TextBox 19"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4427,6 +5010,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>一些别名的设置</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4445,7 +5029,7 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>168966</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="TextBox 20"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4514,7 +5098,7 @@
       <xdr:row>132</xdr:row>
       <xdr:rowOff>49695</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="TextBox 22"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4567,6 +5151,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>用户改变不了，芯片厂商给写的</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4585,7 +5170,7 @@
       <xdr:row>126</xdr:row>
       <xdr:rowOff>77857</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="TextBox 23"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -4653,6 +5238,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>启动芯片，然后把这部分寄存器该了，从而解锁芯片</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4671,7 +5257,7 @@
       <xdr:row>139</xdr:row>
       <xdr:rowOff>161511</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="26" name="直接箭头连接符 25"/>
         <xdr:cNvCxnSpPr>
@@ -4720,7 +5306,7 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>24020</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
         <xdr:cNvCxnSpPr>
@@ -4769,7 +5355,7 @@
       <xdr:row>130</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
         <xdr:cNvCxnSpPr>
@@ -4818,7 +5404,7 @@
       <xdr:row>127</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
         <xdr:cNvCxnSpPr>
@@ -4867,10 +5453,10 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="椭圆 37">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -4908,6 +5494,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>返回</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4926,7 +5513,7 @@
       <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="右大括号 40"/>
         <xdr:cNvSpPr/>
@@ -4981,7 +5568,7 @@
       <xdr:row>93</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="TextBox 41"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -5046,7 +5633,7 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="43" name="右大括号 42"/>
         <xdr:cNvSpPr/>
@@ -5101,7 +5688,7 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="TextBox 43"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -5157,7 +5744,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5179,7 +5766,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5221,7 +5808,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5263,7 +5850,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5305,7 +5892,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5330,7 +5917,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5352,7 +5939,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5394,7 +5981,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5436,7 +6023,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5478,7 +6065,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5510,7 +6097,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5809,16 +6396,16 @@
       </a:style>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE153"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K123" sqref="K123"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -5826,7 +6413,7 @@
     <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.5">
+    <row r="1" ht="22.5" spans="9:31">
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
         <v>0</v>
@@ -5849,7 +6436,7 @@
       </c>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5869,644 +6456,645 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="3:3">
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="2:3">
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="2:3">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="2:3">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="2:2">
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="3:3">
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="2:3">
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="2:3">
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="3:3">
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="2:3">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="2:3">
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="2:3">
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="3:3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="2:2">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="9:9">
       <c r="I25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="9:9">
       <c r="I27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="4:17">
+    <row r="34" spans="16:16">
       <c r="P34" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="4:17">
+    <row r="36" spans="16:16">
       <c r="P36" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="4:17">
+    <row r="38" spans="16:16">
       <c r="P38" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="4:17">
+    <row r="39" spans="4:4">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="4:17">
+    <row r="40" spans="4:16">
       <c r="D40" s="2"/>
       <c r="P40" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="4:17">
+    <row r="41" spans="17:17">
       <c r="Q41" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="4:17">
+    <row r="43" spans="16:16">
       <c r="P43" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="4:17">
+    <row r="44" spans="17:17">
       <c r="Q44" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="4:17">
+    <row r="46" spans="16:16">
       <c r="P46" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="4:17">
+    <row r="47" spans="17:17">
       <c r="Q47" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="16:16">
       <c r="P49" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="17:17">
       <c r="Q50" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="16:16">
       <c r="P52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="16:16">
       <c r="P53" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="16:16">
       <c r="P55" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="17:17">
       <c r="Q56" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="17:17">
       <c r="Q57" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
-      <c r="B59" s="1" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
-      <c r="C60" s="1" t="s">
+    <row r="98" spans="3:3">
+      <c r="C98" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
-      <c r="C61" s="1" t="s">
+    <row r="99" spans="3:3">
+      <c r="C99" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
-      <c r="C62" s="2" t="s">
+    <row r="100" spans="3:3">
+      <c r="C100" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
-      <c r="C63" s="2" t="s">
+    <row r="101" spans="3:3">
+      <c r="C101" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
-      <c r="C64" s="3" t="s">
+    <row r="102" spans="3:3">
+      <c r="C102" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
-      <c r="B65" s="1" t="s">
+    <row r="103" spans="2:2">
+      <c r="B103" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
-      <c r="C66" s="1" t="s">
+    <row r="104" spans="3:3">
+      <c r="C104" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
-      <c r="C67" s="18" t="s">
+    <row r="105" spans="3:14">
+      <c r="C105" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18" t="s">
+      <c r="D105" s="18"/>
+      <c r="E105" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18" t="s">
+      <c r="F105" s="18"/>
+      <c r="G105" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18" t="s">
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="C68" s="18" t="s">
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+    </row>
+    <row r="106" spans="3:14">
+      <c r="C106" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18">
+      <c r="D106" s="18"/>
+      <c r="E106" s="18">
         <v>0</v>
       </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18" t="s">
+      <c r="F106" s="18"/>
+      <c r="G106" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18" t="s">
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="C69" s="18">
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+    </row>
+    <row r="107" spans="3:14">
+      <c r="C107" s="18">
         <v>0</v>
       </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18">
+      <c r="D107" s="18"/>
+      <c r="E107" s="18">
         <v>1</v>
       </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18" t="s">
+      <c r="F107" s="18"/>
+      <c r="G107" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18" t="s">
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="C70" s="18">
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+    </row>
+    <row r="108" spans="3:14">
+      <c r="C108" s="18">
         <v>1</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18">
+      <c r="D108" s="18"/>
+      <c r="E108" s="18">
         <v>1</v>
       </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18" t="s">
+      <c r="F108" s="18"/>
+      <c r="G108" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18" t="s">
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="1" t="s">
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
-      <c r="B73" s="3" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="1" t="s">
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
-      <c r="B76" s="1" t="s">
+    <row r="114" spans="2:2">
+      <c r="B114" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
-      <c r="C77" s="1" t="s">
+    <row r="115" spans="3:3">
+      <c r="C115" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
-      <c r="C78" s="1" t="s">
+    <row r="116" spans="3:3">
+      <c r="C116" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
-      <c r="B79" s="1" t="s">
+    <row r="117" spans="2:2">
+      <c r="B117" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
-      <c r="C80" s="14" t="s">
+    <row r="118" spans="3:3">
+      <c r="C118" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
-      <c r="C81" s="1" t="s">
+    <row r="119" spans="3:3">
+      <c r="C119" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
-      <c r="C82" s="1" t="s">
+    <row r="120" spans="3:3">
+      <c r="C120" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
-      <c r="C83" s="6" t="s">
+    <row r="121" spans="3:3">
+      <c r="C121" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
-      <c r="D84" s="6" t="s">
+    <row r="122" spans="4:4">
+      <c r="D122" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
-      <c r="E85" s="6" t="s">
+    <row r="123" spans="5:5">
+      <c r="E123" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
-      <c r="D86" s="6" t="s">
+    <row r="124" spans="4:4">
+      <c r="D124" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
-      <c r="E87" s="6" t="s">
+    <row r="125" spans="5:5">
+      <c r="E125" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
-      <c r="D88" s="6" t="s">
+    <row r="126" spans="4:4">
+      <c r="D126" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
-      <c r="E89" s="6" t="s">
+    <row r="127" spans="5:5">
+      <c r="E127" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
-      <c r="D90" s="6" t="s">
+    <row r="128" spans="4:4">
+      <c r="D128" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
-      <c r="E91" s="6" t="s">
+    <row r="129" spans="5:5">
+      <c r="E129" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="6" t="s">
+    <row r="130" spans="2:2">
+      <c r="B130" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
-      <c r="C93" s="6" t="s">
+    <row r="131" spans="3:3">
+      <c r="C131" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
-      <c r="C94" s="6" t="s">
+    <row r="132" spans="3:3">
+      <c r="C132" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="6" t="s">
+    <row r="133" spans="2:2">
+      <c r="B133" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
-      <c r="C96" s="6" t="s">
+    <row r="134" spans="3:3">
+      <c r="C134" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
-      <c r="B97" s="6" t="s">
+    <row r="135" spans="2:2">
+      <c r="B135" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
-      <c r="C98" s="6" t="s">
+    <row r="136" spans="3:26">
+      <c r="C136" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="Z98" s="17" t="s">
+      <c r="Z136" s="21" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
-      <c r="C99" s="6" t="s">
+    <row r="137" spans="3:3">
+      <c r="C137" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:31">
-      <c r="D100" s="6" t="s">
+    <row r="138" spans="4:4">
+      <c r="D138" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
-      <c r="D101" s="6" t="s">
+    <row r="139" spans="4:4">
+      <c r="D139" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="102" spans="1:31">
-      <c r="D102" s="19" t="s">
+    <row r="140" spans="4:12">
+      <c r="D140" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19" t="s">
+      <c r="E140" s="19"/>
+      <c r="F140" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19" t="s">
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-    </row>
-    <row r="103" spans="1:31">
-      <c r="D103" s="19" t="s">
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+    </row>
+    <row r="141" spans="4:12">
+      <c r="D141" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19" t="s">
+      <c r="E141" s="19"/>
+      <c r="F141" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="18">
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="18">
         <v>0</v>
       </c>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-    </row>
-    <row r="104" spans="1:31">
-      <c r="D104" s="19" t="s">
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+    </row>
+    <row r="142" spans="4:12">
+      <c r="D142" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19" t="s">
+      <c r="E142" s="19"/>
+      <c r="F142" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19" t="s">
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-    </row>
-    <row r="105" spans="1:31">
-      <c r="D105" s="19" t="s">
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="19"/>
+    </row>
+    <row r="143" spans="4:12">
+      <c r="D143" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19" t="s">
+      <c r="E143" s="19"/>
+      <c r="F143" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19" t="s">
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-    </row>
-    <row r="106" spans="1:31">
-      <c r="D106" s="6" t="s">
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19"/>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
-      <c r="D107" s="6" t="s">
+    <row r="145" spans="4:4">
+      <c r="D145" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:31">
-      <c r="D108" s="6" t="s">
+    <row r="146" spans="4:4">
+      <c r="D146" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:31">
-      <c r="A110" s="6" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:31" s="9" customFormat="1" ht="22.5">
-      <c r="A112" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I112" s="20"/>
-      <c r="J112" s="20"/>
-      <c r="V112" s="13"/>
-      <c r="X112" s="13"/>
-      <c r="AE112" s="13"/>
-    </row>
-    <row r="113" spans="1:27" s="9" customFormat="1">
-      <c r="A113" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="X113" s="13"/>
-      <c r="AA113" s="21"/>
-    </row>
-    <row r="114" spans="1:27" s="9" customFormat="1"/>
-    <row r="115" spans="1:27" s="9" customFormat="1">
-      <c r="A115" s="9" t="s">
-        <v>161</v>
+    <row r="150" s="9" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A150" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
+      <c r="V150" s="13"/>
+      <c r="X150" s="13"/>
+      <c r="AE150" s="13"/>
+    </row>
+    <row r="151" s="9" customFormat="1" spans="1:27">
+      <c r="A151" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X151" s="13"/>
+      <c r="AA151" s="22"/>
+    </row>
+    <row r="152" s="9" customFormat="1"/>
+    <row r="153" s="9" customFormat="1" spans="1:1">
+      <c r="A153" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="I105:L105"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:L102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="I103:L103"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="J70:N70"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="J105:N105"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="J106:N106"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="J107:N107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="I143:L143"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C80" location="内存映射!A1" display="内存映射表："/>
-    <hyperlink ref="Z98" location="内存映射!A1" display="内存映射表："/>
+    <hyperlink ref="C118" location="内存映射!A1" display="内存映射表："/>
+    <hyperlink ref="Z136" location="内存映射!A1" display="内存映射表："/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
@@ -6515,7 +7103,7 @@
     <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="22.5">
+    <row r="1" ht="22.5" spans="9:31">
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
         <v>0</v>
@@ -6538,9 +7126,9 @@
       </c>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>7</v>
@@ -6558,393 +7146,394 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="2:27">
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="X3" s="2"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="3:3">
       <c r="C4" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:31" s="8" customFormat="1">
+    <row r="6" s="8" customFormat="1" spans="3:3">
       <c r="C6" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" s="8" customFormat="1"/>
-    <row r="8" spans="1:31" s="8" customFormat="1"/>
-    <row r="9" spans="1:31" s="8" customFormat="1"/>
-    <row r="10" spans="1:31" s="8" customFormat="1"/>
-    <row r="11" spans="1:31" s="8" customFormat="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="1"/>
+    <row r="8" s="8" customFormat="1"/>
+    <row r="9" s="8" customFormat="1"/>
+    <row r="10" s="8" customFormat="1"/>
+    <row r="11" s="8" customFormat="1" spans="3:3">
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:31" s="8" customFormat="1">
+    <row r="12" s="8" customFormat="1" spans="2:3">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:31" s="8" customFormat="1">
+    <row r="13" s="8" customFormat="1" spans="2:3">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:31" s="8" customFormat="1">
+    <row r="14" s="8" customFormat="1" spans="2:16">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="P14" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" s="8" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="2:17">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="Q15" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" s="8" customFormat="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="2:17">
       <c r="B16" s="10"/>
       <c r="Q16" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" s="8" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="17:17">
       <c r="Q17" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" s="8" customFormat="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="1" spans="2:2">
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="2:17" s="8" customFormat="1">
+    <row r="19" s="8" customFormat="1" spans="2:2">
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="2:17" s="8" customFormat="1">
+    <row r="20" s="8" customFormat="1" spans="16:16">
       <c r="P20" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" s="8" customFormat="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="2:17">
       <c r="B21" s="11"/>
       <c r="Q21" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" s="8" customFormat="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" s="8" customFormat="1" spans="2:17">
       <c r="B22" s="11"/>
       <c r="Q22" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" s="8" customFormat="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="17:17">
       <c r="Q23" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" s="8" customFormat="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="17:17">
       <c r="Q24" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" s="8" customFormat="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="2:17">
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
       <c r="Q25" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" s="8" customFormat="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" s="8" customFormat="1" spans="3:17">
       <c r="C26" s="10"/>
       <c r="Q26" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" s="8" customFormat="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" s="8" customFormat="1" spans="2:16">
       <c r="B27" s="11"/>
       <c r="P27" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" s="8" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" s="8" customFormat="1" spans="17:17">
       <c r="Q28" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" s="8" customFormat="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" s="8" customFormat="1" spans="17:17">
       <c r="Q29" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" s="8" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" s="8" customFormat="1" spans="17:17">
       <c r="Q30" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" s="8" customFormat="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" s="8" customFormat="1" spans="16:16">
       <c r="P31" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" s="8" customFormat="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" s="8" customFormat="1" spans="17:17">
       <c r="Q32" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="3:17" s="8" customFormat="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" s="8" customFormat="1" spans="17:17">
       <c r="Q33" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="3:17" s="8" customFormat="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" s="8" customFormat="1" spans="17:17">
       <c r="Q34" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="3:17" s="8" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" s="8" customFormat="1" spans="16:16">
       <c r="P35" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="3:17" s="8" customFormat="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" s="8" customFormat="1" spans="17:17">
       <c r="Q36" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="3:17" s="9" customFormat="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" s="9" customFormat="1" spans="3:16">
       <c r="C37" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P37" s="16"/>
     </row>
-    <row r="38" spans="3:17" s="9" customFormat="1"/>
-    <row r="39" spans="3:17" s="9" customFormat="1"/>
-    <row r="40" spans="3:17" s="9" customFormat="1"/>
-    <row r="41" spans="3:17" s="9" customFormat="1">
+    <row r="38" s="9" customFormat="1"/>
+    <row r="39" s="9" customFormat="1"/>
+    <row r="40" s="9" customFormat="1"/>
+    <row r="41" s="9" customFormat="1" spans="16:16">
       <c r="P41" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="3:17" s="9" customFormat="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" s="9" customFormat="1" spans="4:17">
       <c r="D42" s="13"/>
       <c r="Q42" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="3:17" s="9" customFormat="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" s="9" customFormat="1" spans="4:17">
       <c r="D43" s="13"/>
       <c r="Q43" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="3:17" s="9" customFormat="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" s="9" customFormat="1" spans="17:17">
       <c r="Q44" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="3:17" s="9" customFormat="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" s="9" customFormat="1" spans="17:17">
       <c r="Q45" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="3:17" s="9" customFormat="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" s="9" customFormat="1" spans="17:17">
       <c r="Q46" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="3:17" s="9" customFormat="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" s="9" customFormat="1" spans="17:17">
       <c r="Q47" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="3:17" s="9" customFormat="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" s="9" customFormat="1" spans="17:17">
       <c r="Q48" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="9" customFormat="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" s="9" customFormat="1" spans="16:16">
       <c r="P49" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="9" customFormat="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" s="9" customFormat="1" spans="17:17">
       <c r="Q50" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="9" customFormat="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" s="9" customFormat="1" spans="16:16">
       <c r="P51" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="9" customFormat="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" s="9" customFormat="1" spans="17:17">
       <c r="Q52" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="9" customFormat="1"/>
-    <row r="54" spans="1:17">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" s="9" customFormat="1"/>
+    <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
       <c r="C55" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
       <c r="D56" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
       <c r="D57" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
       <c r="C58" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
       <c r="D59" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
       <c r="D60" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
       <c r="B63" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="3:3">
       <c r="C64" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
-      <c r="C65" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="3:3">
       <c r="C66" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="3:3">
       <c r="C67" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="3:3">
       <c r="C68" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="3:3">
       <c r="C69" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="3:3">
       <c r="C70" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:2">
       <c r="B71" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="3:3">
       <c r="C72" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="3:3">
       <c r="C73" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="4:4">
       <c r="D74" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="4:5">
+    <row r="87" spans="4:4">
       <c r="D87" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="4:5">
+    <row r="88" spans="5:5">
       <c r="E88" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="116" spans="4:5">
+    <row r="116" spans="4:4">
       <c r="D116" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="4:5">
-      <c r="E117" s="22" t="s">
+    <row r="117" spans="5:5">
+      <c r="E117" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="118" spans="4:5">
-      <c r="E118" s="22" t="s">
+    <row r="118" spans="5:5">
+      <c r="E118" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="119" spans="4:5">
-      <c r="E119" s="22" t="s">
+    <row r="119" spans="5:5">
+      <c r="E119" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="4:5">
-      <c r="E120" s="22" t="s">
+    <row r="120" spans="5:5">
+      <c r="E120" s="17" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D56" location="输入模式!A1" display="输入模式：输入浮空，输入上拉，输入下拉，模拟输入"/>
     <hyperlink ref="D57" location="输出模式!A1" display="输出模式：开漏输出，开漏复用功能，推挽式输出，推挽式复用功能"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:AE40"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A97" workbookViewId="0">
       <selection activeCell="BC74" sqref="BC74"/>
     </sheetView>
   </sheetViews>
@@ -6953,83 +7542,84 @@
     <col min="1" max="16384" width="4.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="22.5">
+    <row r="1" ht="22.5" spans="9:31">
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="V1" s="2"/>
       <c r="X1" s="2"/>
       <c r="AE1" s="2"/>
     </row>
-    <row r="2" spans="2:31">
+    <row r="2" spans="24:27">
       <c r="X2" s="2"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="8" spans="2:31">
+    <row r="8" spans="3:3">
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="2:31">
+    <row r="9" spans="2:3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:31">
+    <row r="10" spans="2:3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="2:31">
+    <row r="11" spans="2:3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:31">
+    <row r="12" spans="2:3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="2:31">
+    <row r="13" spans="2:2">
       <c r="B13" s="2"/>
     </row>
-    <row r="15" spans="2:31">
+    <row r="15" spans="2:2">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="2:31">
+    <row r="16" spans="2:2">
       <c r="B16" s="3"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:2">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:2">
       <c r="B19" s="3"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="3:3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:2">
       <c r="B24" s="3"/>
     </row>
-    <row r="34" spans="4:16">
+    <row r="34" spans="16:16">
       <c r="P34" s="6"/>
     </row>
-    <row r="38" spans="4:16">
+    <row r="38" spans="16:16">
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="4:16">
+    <row r="39" spans="4:4">
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="4:16">
+    <row r="40" spans="4:4">
       <c r="D40" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7038,22 +7628,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SMT32（一）原理.xlsx
+++ b/SMT32（一）原理.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="187">
   <si>
     <t>STM32</t>
   </si>
@@ -166,26 +166,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用于指令的存取，M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3内核和闪存交互</t>
-    </r>
+    <t>连接着内核与内部存储器的指令接口，可以实现指令的预取功能，以字为单位</t>
+  </si>
+  <si>
+    <t>编译后的程序会被放在内部flash中，内核想读取指令必须通过I总线实现</t>
+  </si>
+  <si>
+    <t>简化版本：用于指令的存取，M3内核和闪存交互</t>
   </si>
   <si>
     <r>
@@ -220,26 +207,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>把M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3内核和FLASH,SRAM相连，这样就可以从FLASH中加载常量，从SRAM中加载变量</t>
-    </r>
+    <t>连接着内核与内部存储器的数据接口，实现数据功能的访问</t>
+  </si>
+  <si>
+    <t>常量被放在flash中，变量放在ARAM中，内核想访问数据那就得通过D总线</t>
+  </si>
+  <si>
+    <t>简化版本：把M3内核和FLASH,SRAM相连，这样就可以从FLASH中加载常量，从SRAM中加载变量</t>
   </si>
   <si>
     <r>
@@ -274,32 +248,19 @@
     </r>
   </si>
   <si>
-    <t>主要用于访问外设等寄存器，通过系统总线来读写寄存器这样就可以控制外设了</t>
+    <t>连接内核和总线矩阵的，总线矩阵可以访问外设寄存器，操作寄存器就是通过system总线完成的</t>
+  </si>
+  <si>
+    <t>简化版本：主要用于访问外设等寄存器，通过系统总线来读写寄存器这样就可以控制外设了</t>
   </si>
   <si>
     <t>DMA总线：</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>也是用于数据传输，负责D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MA和存储器和外设的交互</t>
-    </r>
+    <t>把DMA主控连到总线矩阵上，可以访问FLASH，SRAM，外部寄存器，为了避免和其他总线冲突，总线矩阵可以仲裁</t>
+  </si>
+  <si>
+    <t>简化版本：也是用于数据传输，负责DMA和存储器和外设的交互</t>
   </si>
   <si>
     <r>
@@ -998,12 +959,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,18 +1008,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1070,45 +1039,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,7 +1053,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1145,9 +1076,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1162,31 +1093,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1201,7 +1110,45 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1240,7 +1187,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,67 +1343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,103 +1361,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,17 +1396,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1469,41 +1410,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,15 +1429,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1546,6 +1443,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1554,10 +1501,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1566,137 +1513,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1748,9 +1695,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1760,7 +1704,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2052,13 +1996,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>46107</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>3562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>46108</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>3562</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -2068,7 +2012,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3760470" y="7318375"/>
+          <a:off x="3760470" y="7661275"/>
           <a:ext cx="371475" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2097,13 +2041,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>281333</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>122830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>281333</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>122830</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -2113,7 +2057,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4367530" y="7266305"/>
+          <a:off x="4367530" y="7609205"/>
           <a:ext cx="371475" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2142,13 +2086,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19603</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>35035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19603</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>35035</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
@@ -2158,7 +2102,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2247900" y="7178675"/>
+          <a:off x="2247900" y="7521575"/>
           <a:ext cx="371475" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2285,13 +2229,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>36830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>276860</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>103505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2309,7 +2253,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="10095230"/>
+          <a:off x="635" y="11123930"/>
           <a:ext cx="7334250" cy="6238875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6402,10 +6346,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE153"/>
+  <dimension ref="A1:AE159"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -6600,93 +6544,93 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="16:16">
-      <c r="P43" s="1" t="s">
+    <row r="42" spans="17:17">
+      <c r="Q42" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="17:17">
-      <c r="Q44" s="1" t="s">
+    <row r="43" spans="17:17">
+      <c r="Q43" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="16:16">
-      <c r="P46" s="1" t="s">
+    <row r="45" spans="16:16">
+      <c r="P45" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="17:17">
+      <c r="Q46" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="17:17">
       <c r="Q47" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="16:16">
-      <c r="P49" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="17:17">
-      <c r="Q50" s="1" t="s">
+    <row r="48" spans="17:17">
+      <c r="Q48" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="16:16">
-      <c r="P52" s="1" t="s">
+    <row r="50" spans="16:16">
+      <c r="P50" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="16:16">
-      <c r="P53" s="1" t="s">
+    <row r="51" spans="17:17">
+      <c r="Q51" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="16:16">
-      <c r="P55" s="1" t="s">
+    <row r="52" spans="17:17">
+      <c r="Q52" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="16:16">
+      <c r="P54" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="17:17">
+      <c r="Q55" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="17:17">
       <c r="Q56" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="17:17">
-      <c r="Q57" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="1" t="s">
+    <row r="58" spans="16:16">
+      <c r="P58" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
-      <c r="C98" s="1" t="s">
+    <row r="59" spans="16:16">
+      <c r="P59" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="1" t="s">
+    <row r="61" spans="16:16">
+      <c r="P61" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="2" t="s">
+    <row r="62" spans="17:17">
+      <c r="Q62" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="2" t="s">
+    <row r="63" spans="17:17">
+      <c r="Q63" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="3:3">
-      <c r="C102" s="3" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6700,176 +6644,176 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="3:14">
-      <c r="C105" s="18" t="s">
+    <row r="105" spans="3:3">
+      <c r="C105" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18" t="s">
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18" t="s">
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18" t="s">
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-    </row>
-    <row r="106" spans="3:14">
-      <c r="C106" s="18" t="s">
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18">
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="3:14">
+      <c r="C111" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+    </row>
+    <row r="112" spans="3:14">
+      <c r="C112" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17">
         <v>0</v>
       </c>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="18"/>
-    </row>
-    <row r="107" spans="3:14">
-      <c r="C107" s="18">
+      <c r="F112" s="17"/>
+      <c r="G112" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+    </row>
+    <row r="113" spans="3:14">
+      <c r="C113" s="17">
         <v>0</v>
       </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18">
+      <c r="D113" s="17"/>
+      <c r="E113" s="17">
         <v>1</v>
       </c>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="18"/>
-    </row>
-    <row r="108" spans="3:14">
-      <c r="C108" s="18">
+      <c r="F113" s="17"/>
+      <c r="G113" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+    </row>
+    <row r="114" spans="3:14">
+      <c r="C114" s="17">
         <v>1</v>
       </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18">
+      <c r="D114" s="17"/>
+      <c r="E114" s="17">
         <v>1</v>
       </c>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3">
-      <c r="C115" s="1" t="s">
+      <c r="F114" s="17"/>
+      <c r="G114" s="17" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="116" spans="3:3">
-      <c r="C116" s="1" t="s">
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3">
-      <c r="C118" s="14" t="s">
+      <c r="B117" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="3:3">
-      <c r="C119" s="1" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="3:3">
-      <c r="C120" s="1" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="121" spans="3:3">
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="4:4">
-      <c r="D122" s="6" t="s">
+    <row r="122" spans="3:3">
+      <c r="C122" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="6" t="s">
+    <row r="123" spans="2:2">
+      <c r="B123" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="4:4">
-      <c r="D124" s="6" t="s">
+    <row r="124" spans="3:3">
+      <c r="C124" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="5:5">
-      <c r="E125" s="6" t="s">
+    <row r="125" spans="3:3">
+      <c r="C125" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="4:4">
-      <c r="D126" s="6" t="s">
+    <row r="126" spans="3:3">
+      <c r="C126" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="127" spans="5:5">
-      <c r="E127" s="6" t="s">
+    <row r="127" spans="3:3">
+      <c r="C127" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6883,42 +6827,39 @@
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="6" t="s">
+    <row r="130" spans="4:4">
+      <c r="D130" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="3:3">
-      <c r="C131" s="6" t="s">
+    <row r="131" spans="5:5">
+      <c r="E131" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
-      <c r="C132" s="6" t="s">
+    <row r="132" spans="4:4">
+      <c r="D132" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="6" t="s">
+    <row r="133" spans="5:5">
+      <c r="E133" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="3:3">
-      <c r="C134" s="6" t="s">
+    <row r="134" spans="4:4">
+      <c r="D134" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="6" t="s">
+    <row r="135" spans="5:5">
+      <c r="E135" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="136" spans="3:26">
-      <c r="C136" s="6" t="s">
+    <row r="136" spans="2:2">
+      <c r="B136" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="Z136" s="21" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="137" spans="3:3">
@@ -6926,161 +6867,194 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="4:4">
-      <c r="D138" s="6" t="s">
+    <row r="138" spans="3:3">
+      <c r="C138" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="139" spans="4:4">
-      <c r="D139" s="6" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="140" spans="4:12">
-      <c r="D140" s="19" t="s">
+    <row r="140" spans="3:3">
+      <c r="C140" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19" t="s">
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19" t="s">
+    </row>
+    <row r="142" spans="3:26">
+      <c r="C142" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
-    </row>
-    <row r="141" spans="4:12">
-      <c r="D141" s="19" t="s">
+      <c r="Z142" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="18">
-        <v>0</v>
-      </c>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-    </row>
-    <row r="142" spans="4:12">
-      <c r="D142" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-    </row>
-    <row r="143" spans="4:12">
-      <c r="D143" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" s="6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="4:4">
       <c r="D145" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="4:12">
+      <c r="D146" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+    </row>
+    <row r="147" spans="4:12">
+      <c r="D147" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="17">
+        <v>0</v>
+      </c>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+    </row>
+    <row r="148" spans="4:12">
+      <c r="D148" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="146" spans="4:4">
-      <c r="D146" s="6" t="s">
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="6" t="s">
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+    </row>
+    <row r="149" spans="4:12">
+      <c r="D149" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="150" s="9" customFormat="1" ht="22.5" spans="1:31">
-      <c r="A150" s="9" t="s">
+      <c r="E149" s="18"/>
+      <c r="F149" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-      <c r="V150" s="13"/>
-      <c r="X150" s="13"/>
-      <c r="AE150" s="13"/>
-    </row>
-    <row r="151" s="9" customFormat="1" spans="1:27">
-      <c r="A151" s="9" t="s">
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="X151" s="13"/>
-      <c r="AA151" s="22"/>
-    </row>
-    <row r="152" s="9" customFormat="1"/>
-    <row r="153" s="9" customFormat="1" spans="1:1">
-      <c r="A153" s="9" t="s">
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" s="6" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="156" s="9" customFormat="1" ht="22.5" spans="1:31">
+      <c r="A156" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="V156" s="13"/>
+      <c r="X156" s="13"/>
+      <c r="AE156" s="13"/>
+    </row>
+    <row r="157" s="9" customFormat="1" spans="1:27">
+      <c r="A157" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X157" s="13"/>
+      <c r="AA157" s="21"/>
+    </row>
+    <row r="158" s="9" customFormat="1"/>
+    <row r="159" s="9" customFormat="1" spans="1:1">
+      <c r="A159" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="J105:N105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="J106:N106"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="J107:N107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="I142:L142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="J111:N111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="J112:N112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="J113:N113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="J114:N114"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="I148:L148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="I149:L149"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C118" location="内存映射!A1" display="内存映射表："/>
-    <hyperlink ref="Z136" location="内存映射!A1" display="内存映射表："/>
+    <hyperlink ref="C124" location="内存映射!A1" display="内存映射表："/>
+    <hyperlink ref="Z142" location="内存映射!A1" display="内存映射表："/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7128,7 +7102,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>7</v>
@@ -7148,25 +7122,25 @@
     </row>
     <row r="3" spans="2:27">
       <c r="B3" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="X3" s="2"/>
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" s="8" customFormat="1" spans="3:3">
       <c r="C6" s="8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1"/>
@@ -7188,25 +7162,25 @@
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="P14" s="15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" s="8" customFormat="1" spans="2:17">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="Q15" s="15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" s="8" customFormat="1" spans="2:17">
       <c r="B16" s="10"/>
       <c r="Q16" s="15" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" s="8" customFormat="1" spans="17:17">
       <c r="Q17" s="15" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1" spans="2:2">
@@ -7217,98 +7191,98 @@
     </row>
     <row r="20" s="8" customFormat="1" spans="16:16">
       <c r="P20" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" s="8" customFormat="1" spans="2:17">
       <c r="B21" s="11"/>
       <c r="Q21" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" s="8" customFormat="1" spans="2:17">
       <c r="B22" s="11"/>
       <c r="Q22" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="1" spans="17:17">
       <c r="Q23" s="8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" spans="17:17">
       <c r="Q24" s="8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" spans="2:17">
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
       <c r="Q25" s="8" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" s="8" customFormat="1" spans="3:17">
       <c r="C26" s="10"/>
       <c r="Q26" s="8" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" s="8" customFormat="1" spans="2:16">
       <c r="B27" s="11"/>
       <c r="P27" s="8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" s="8" customFormat="1" spans="17:17">
       <c r="Q28" s="8" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="1" spans="17:17">
       <c r="Q29" s="8" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" s="8" customFormat="1" spans="17:17">
       <c r="Q30" s="8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" s="8" customFormat="1" spans="16:16">
       <c r="P31" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" s="8" customFormat="1" spans="17:17">
       <c r="Q32" s="8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" s="8" customFormat="1" spans="17:17">
       <c r="Q33" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" s="8" customFormat="1" spans="17:17">
       <c r="Q34" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" s="8" customFormat="1" spans="16:16">
       <c r="P35" s="8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" s="8" customFormat="1" spans="17:17">
       <c r="Q36" s="8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" s="9" customFormat="1" spans="3:16">
       <c r="C37" s="9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P37" s="16"/>
     </row>
@@ -7317,100 +7291,100 @@
     <row r="40" s="9" customFormat="1"/>
     <row r="41" s="9" customFormat="1" spans="16:16">
       <c r="P41" s="16" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" s="9" customFormat="1" spans="4:17">
       <c r="D42" s="13"/>
       <c r="Q42" s="16" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" s="9" customFormat="1" spans="4:17">
       <c r="D43" s="13"/>
       <c r="Q43" s="16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" s="9" customFormat="1" spans="17:17">
       <c r="Q44" s="16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" s="9" customFormat="1" spans="17:17">
       <c r="Q45" s="16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" s="9" customFormat="1" spans="17:17">
       <c r="Q46" s="9" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" s="9" customFormat="1" spans="17:17">
       <c r="Q47" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" s="9" customFormat="1" spans="17:17">
       <c r="Q48" s="9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" s="9" customFormat="1" spans="16:16">
       <c r="P49" s="9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" s="9" customFormat="1" spans="17:17">
       <c r="Q50" s="9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" s="9" customFormat="1" spans="16:16">
       <c r="P51" s="9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" s="9" customFormat="1" spans="17:17">
       <c r="Q52" s="9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" s="9" customFormat="1"/>
     <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="14" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="3:3">
@@ -7418,102 +7392,102 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" s="6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="5:5">
       <c r="E88" s="6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="17" t="s">
-        <v>177</v>
+      <c r="E117" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="17" t="s">
-        <v>178</v>
+      <c r="E118" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="17" t="s">
-        <v>179</v>
+      <c r="E119" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="17" t="s">
-        <v>180</v>
+      <c r="E120" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
